--- a/cmd/containers.xlsx
+++ b/cmd/containers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Container Name</t>
   </si>
@@ -28,28 +28,16 @@
     <t>nginx:latest</t>
   </si>
   <si>
-    <t>redis-container-1</t>
-  </si>
-  <si>
-    <t>redis:alpine</t>
-  </si>
-  <si>
-    <t>postgres-container-1</t>
-  </si>
-  <si>
-    <t>postgres:13</t>
-  </si>
-  <si>
-    <t>ubuntu-container-1</t>
-  </si>
-  <si>
-    <t>ubuntu:20.04</t>
-  </si>
-  <si>
-    <t>mysql-container-1</t>
-  </si>
-  <si>
-    <t>mysql:8.0</t>
+    <t>nginx-container-2</t>
+  </si>
+  <si>
+    <t>nginx-container-3</t>
+  </si>
+  <si>
+    <t>nginx-container-4</t>
+  </si>
+  <si>
+    <t>nginx-container-5</t>
   </si>
 </sst>
 </file>
@@ -380,31 +368,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/containers.xlsx
+++ b/cmd/containers.xlsx
@@ -1,55 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Container Name</t>
-  </si>
-  <si>
-    <t>Image Name</t>
-  </si>
-  <si>
-    <t>nginx-container-1</t>
-  </si>
-  <si>
-    <t>nginx:latest</t>
-  </si>
-  <si>
-    <t>nginx-container-2</t>
-  </si>
-  <si>
-    <t>nginx-container-3</t>
-  </si>
-  <si>
-    <t>nginx-container-4</t>
-  </si>
-  <si>
-    <t>nginx-container-5</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,18 +65,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -94,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -161,12 +153,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -205,196 +197,246 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" t="str">
+        <v>Container Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Image Name</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" t="str">
+        <v>nginx-container-3</v>
+      </c>
+      <c r="B2" t="str">
+        <v>nginx:latest</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="A3" t="str">
+        <v>nginx-container-4</v>
+      </c>
+      <c r="B3" t="str">
+        <v>nginx:latest</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="A4" t="str">
+        <v>nginx-container-5</v>
+      </c>
+      <c r="B4" t="str">
+        <v>nginx:latest</v>
       </c>
     </row>
   </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+  </ignoredErrors>
 </worksheet>
 </file>